--- a/Системы контроля версий.xlsx
+++ b/Системы контроля версий.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>Название</t>
   </si>
@@ -181,12 +181,281 @@
   <si>
     <t xml:space="preserve">С точки зрения пользователя хранилище Subversion представляет собой «двумерную» файловую систему. Объекты в хранилище (файлы и каталоги) идентифицируются двумя «координатами»: именем и номером ревизии. Другими словами, хранилище представляет собой массив мгновенных снимков (ревизий) дерева файлов и каталогов, индексируемый номером ревизии. Каждый такой снимок — обычная (одномерная) файловая система.     </t>
   </si>
+  <si>
+    <t>Aegis, созданная Питером Миллером в 1991 году, является первой альтернативой централизованным системам управления версиями. Все операции в ней производятся через файловую систему Unix. К сожалению, в Aegis нет встроенной поддержки работы по сети, но взаимодействия можно осуществлять, используюя такие протоколы, как NFS, HTTP, FTP.</t>
+  </si>
+  <si>
+    <t>1. Отсутствие встроенной поддержки сетевого взаимодействия.
+2. Сложность настройки и работы с репозиторием.
+3. Слабые графические интерфейсы.</t>
+  </si>
+  <si>
+    <t>1. Надежный контроль корректности загружаемых изменений.
+2. Возможность предоставлять различные уровни доступа к фалам репозитория, что дает приличный уровень безопасности.
+3. Качественная документация.
+4. Возможность переименовывать файлы, сохраненные в репозитории, без потери истории изменений.
+5. Возможность работы с локальным репозиторием, если отсутствует сетевой доступ к главному репозиторию.</t>
+  </si>
+  <si>
+    <t>Сложность работы Aegis может оттолкнуть пользователей от использования систем контроля версий, поэтому ее нельзя рекомендовать для ознакомления или ведения небольших программных проектов. Однако, она имеет ряд преимуществ, которые могут быть полезны в некоторых специфических ситуациях, особенно, когда требуется жесткий контроль за качеством разрабатываемого программного обеспечения.</t>
+  </si>
+  <si>
+    <t>2008 год</t>
+  </si>
+  <si>
+    <t>Aegis позволяет анализировать многофайловые программные проекты, имеющие одну и более целей сборки. Под целью сборки понимается исполняемый файл, статическая или динамическая библиотека, являющаяся результатом сборки. Обеспечивается возможность анализа частей программ, в том числе отдельных файлов.</t>
+  </si>
+  <si>
+    <t>SCM система</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Управляет автоматизированными тестами, предотвращает внесения, которые не проходят предыдущие тесты и требует разработчиков добавить новые тесты.
+· Управляет обзорами кода. Внесения должны пройти обзор обозревателя, чтобы попасть в главную линию разработки.
+· Имеет различные другие возможности, которые помогают гарантировать качество кода.
+· Ее набор команд отражает эту философию и является очень нудным, если вам нужна просто система контроля версий.</t>
+  </si>
+  <si>
+    <t>Monotone – еще одна децентрализованная система управления версиями, разработанная Грейдоном Хоэм. В ней каждый клиент сам отвечает за синхронизацию версий разрабатываемого продукта с другими клиентами.</t>
+  </si>
+  <si>
+    <t>Работа с этой системой контроля версий - достаточно проста, а многие команды - схожи с командами, используемыми в Subversion и CVS. Отличия, в основном, заключаются в организации слияния ветвей проектов различных разработчиков.
+Работа с Monotone строится следующим образом. В первую очередь, создается база данных проекта SQLite, и генерируются ключи с использованием алгоритма хеширования SHA1 (Secure Hash Algorithm 1).
+Затем, по ходу корректировки проекта пользователем, все изменения сохраняются в этой базе данных, аналогично сохранению изменений в репозитории других систем контроля версий.
+Для синхронизации проекта с другими пользователями необходимо:
+- Экспортировать ключ (хэш - код последней версии проекта) и получить аналогичные ключи от других клиентов.
+- Сохранить всем клиентам полученные ключи в связке ключей своих локальных проектах Monotone.
+- Теперь каждый, зарегистрированный таким образом пользователь, может синхронизировать разработку со своими коллегами, используя простой набор команд.</t>
+  </si>
+  <si>
+    <t>1. Простой и понятный набор команд, схожий с командами Subversion и CVS.
+2. Поддерживает переименование и перемещение файлов и директорий.
+3. Качественная документация, значительно облегчающая использование системы контроля версий.</t>
+  </si>
+  <si>
+    <t>1. Низкая скорость работы.
+2. Отсутствие мощных графических оболочек.
+3. Возможные (но чрезвычайно низкие) совпадения хэш - кода отличных по содержанию ревизий.</t>
+  </si>
+  <si>
+    <t>Monotone - это мощный и удобный инструмент для управления версиями разрабатываемого проекта. Набор команд - продуман и интуитивно понятен, особенно, он будет удобен для пользователей, привыкших к работе c Subversion и CVS. Прекрасно оформленная и полная документация позволит быстро освоиться и использовать все возможности Subversion на полную мощность.
+Однако, относительно низкая скорость работы и отсутствие мощных графических оболочек, возможно, сделает работу с большими проектами несколько затруднительной. Поэтому, если вам требуется система контроля версий для поддержки сложных и объемных продуктов, стоит обратить внимание на Git или Mercurial.</t>
+  </si>
+  <si>
+    <r>
+      <t>6 апреля 2003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Monotone - это программный инструмент с открытым исходным кодом для распределенного контроля версий.</t>
+  </si>
+  <si>
+    <t>Как и GNU arch, и в отличие от Subversion, Monotone использует распределенный подход к управлению версиями. Monotone использует хэши SHA-1 для идентификации конкретных файлов или групп файлов, как в Git и Mercurial, вместо линейных номеров версий. Каждый участник ведет свою собственную историю изменений, хранящуюся в локальной базе данных SQLite.Monotone особенно силен в своей поддержке рабочего процесса diverge / merge, чего он частично достигает, всегда разрешая фиксацию перед слиянием.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> распределённая система управления версиями, инструмент для открытой науки, инструментальное программное обеспечение и хранилище файлов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> выпуск 7 апреля 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git (произносится «гит») — распределённая система управления версиями. Проект был создан Линусом Торвальдсом для управления разработкой ядра Linux, первая версия выпущена 7 апреля 2005 года. На сегодняшний день его поддерживает Джунио Хамано.
+</t>
+  </si>
+  <si>
+    <t>Система спроектирована как набор программ, специально разработанных с учётом их использования в сценариях. Это позволяет удобно создавать специализированные системы контроля версий на базе Git или пользовательские интерфейсы. Например, Cogito является именно таким примером оболочки к репозиториям Git, а StGit использует Git для управления коллекцией исправлений (патчей).
+Git поддерживает быстрое разделение и слияние версий, включает инструменты для визуализации и навигации по нелинейной истории разработки. Как и Darcs, BitKeeper, Mercurial, Bazaar и Monotone[en], Git предоставляет каждому разработчику локальную копию всей истории разработки, изменения копируются из одного репозитория в другой.
+Удалённый доступ к репозиториям Git обеспечивается git-демоном, SSH- или HTTP-сервером. TCP-сервис git-daemon входит в дистрибутив Git и является наряду с SSH наиболее распространённым и надёжным методом доступа. Метод доступа по HTTP, несмотря на ряд ограничений, очень популярен в контролируемых сетях, потому что позволяет использовать существующие конфигурации сетевых фильтров.</t>
+  </si>
+  <si>
+    <t>1. Надежная система сравнения ревизий и проверки корректности данных, основанные на алгоритме хеширования SHA1 (Secure Hash Algorithm 1).
+2. Гибкая система ветвления проектов и слияния веток между собой.
+3. Наличие локального репозитория, содержащего полную информацию обо всех изменениях, позволяет вести полноценный локальный контроль версий и заливать в главный репозиторий только полностью прошедшие проверку изменения.
+4. Высокая производительность и скорость работы.
+5. Удобный и интуитивно понятный набор команд.
+6. Множество графических оболочек, позволяющих быстро и качественно вести работы с Git’ом.
+7. Возможность делать контрольные точки, в которых данные сохраняются без дельта компрессии, а полностью. Это позволяет уменьшить скорость восстановления данных, так как за основу берется ближайшая контрольная точка, и восстановление идет от нее. Если бы контрольные точки отсутствовали, то восстановление больших проектов могло бы занимать часы.
+8. Широкая распространенность, легкая доступность и качественная документация.
+9. Гибкость системы позволяет удобно ее настраивать и даже создавать специализированные контроля системы или пользовательские интерфейсы на базе git.
+10. Универсальный сетевой доступ с использованием протоколов http, ftp, rsync, ssh и др.</t>
+  </si>
+  <si>
+    <t>Git – гибкая, удобная и мощная система контроля версий, способная удовлетворить абсолютное большинство пользователей. Существующие недостатки постепенно удаляются и не приносят серьезных проблем пользователям. Если вы ведете большой проект, территориально удаленный, и тем более, если часто приходится разрабатывать программное обеспечение, не имея доступа к другим разработчикам (например, вы не хотите терять время при перелете из страны в страну или во время поездки на работу), можно делать любые изменения и сохранять их в локальном репозитории, откатываться, переключаться между ветками и т.д.). Git – один из лидеров систем контроля версий.</t>
+  </si>
+  <si>
+    <t>Git – это гибкая, распределенная (без единого сервера) система контроля версий, дающая массу возможностей не только разработчикам программных продуктов, но и писателям для изменения, дополнения и отслеживания изменения «рукописей» и сюжетных линий, и учителям для корректировки и развития курса лекций, и администраторам для ведения документации, и для многих других направлений, требующих управления историей изменений.
+У каждого разработчика, использующего Git, есть свой локальный репозиторий, позволяющий локально управлять версиями. Затем, сохраненными в локальный репозиторий данными, можно обмениваться с другими пользователями.
+Часто при работе с Git создают центральный репозиторий, с которым остальные разработчики синхронизируются. Пример организации системы с центральным репозиторием – это проект разработки ядра Linux’a (http://www.kernel.org).
+В этом случае все участники проекта ведут свои локальны разработки и беспрепятственно скачивают обновления из центрального репозитория. Когда необходимые работы отдельными участниками проекта выполнены и отлажены, они, после удостоверения владельцем центрального репозитория в корректности и актуальности проделанной работы, загружают свои изменения в центральный репозиторий.
+Наличие локальных репозиторием также значительно повышает надежность хранения данных, так как, если один из репозиториев выйдет из строя, данные могут быть легко восстановлены из других репозиториев.
+Работа над версиями проекта в Git может вестись в нескольких ветках, которые затем могут с легкостью полностью или частично объединяться, уничтожаться, откатываться и разрастаться во все новые и новые ветки проекта.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> распределённая система управления версиями</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26 марта 2005</t>
+  </si>
+  <si>
+    <t>Bazaar (ранее известная как Bazaar-NG, имя утилиты командной строки bzr) — распределённая система управления версиями, разработка которой спонсируется фирмой Canonical. Система Bazaar разработана с целью облегчить работу над развитием свободных и открытых проектов для всех желающих.</t>
+  </si>
+  <si>
+    <t>Команды Bazaar очень похожи на команды, используемые в CVS или SVN. Для создания и поддержки нового проекта без использования специального сервера с репозиторием пользователю достаточно запустить команду bzr init в том каталоге, который нужно поместить под контроль версий.[10]
+В отличие от чисто распределённых систем контроля версий, которые не используют центральный сервер, Bazaar поддерживает работу как с сервером так и без него. Возможно даже использовать оба метода одновременно для одного и того же проекта. Сайты Launchpad и SourceForge предлагают свободный хостинг для проектов, которые используют Bazaar.
+Bazaar поддерживает работу напрямую с некоторыми другими системами контроля версий.[11] Пользователи могут создавать новые ветки на основе репозиториев других систем (таких как Subversion или Git), делать локальные изменения и фиксировать их в Bazaar-ветке, и затем отправлять свои изменения назад в оригинальный репозиторий. Bazaar поддерживает базовые операции с Subversion (требуется плагин bzr-svn)[12], а также с Git (требуется плагин bzr-git)[13] Также начата работа над поддержкой Mercurial[14]. Плагин bzr-hg умеет пока немногое, однако его функций достаточно, чтобы отобразить историю ревизий в графическом виде.
+Bazaar поддерживает полный набор символов Unicode в именах файлов. Система также позволяет использовать Unicode для составления комментариев к ревизиям, в именах авторов изменений и т. д.</t>
+  </si>
+  <si>
+    <t>Первоначально, она была создана для эффективного управления большими проектами под Linux’ом, а поэтому была ориентирована на быструю и надежную работу с большими репозиториями. На данный момент mercurial адаптирован для работы под Windows, Mac OS X и большинство Unix систем.
+Большая часть системы контроля версий написана на языке Python, и только отдельные участки программы, требующие наибольшего быстродействия, написаны на языке Си.
+Идентификация ревизий происходит на основе алгоритма хеширования SHA1 (Secure Hash Algorithm 1), однако, также предусмотрена возможность присвоения ревизиям индивидуальных номеров.
+Так же, как и в git’е, поддерживается возможность создания веток проекта с последующим их слиянием.
+Для взаимодействия между клиентами используются протоколы HTTP, HTTPS или SSH.
+Набор команд - простой и интуитивно понятный, во многом схожий с командами subversion. Так же имеется ряд графических оболочек и доступ к репозиторию через веб-интерфейс. Немаловажным является и наличие утилит, позволяющих импортировать репозитории многих других систем контроля версий.</t>
+  </si>
+  <si>
+    <t>1. Быстрая обработка данных.
+2. Кросплатформенная поддержка.
+3. Возможность работы с несколькими ветками проекта.
+4. Простота в обращение.
+5. Возможность конвертирования репозиториев других систем поддержки версий, таких как CVS, Subversion, Git, Darcs, GNU Arch, Bazaar и др.</t>
+  </si>
+  <si>
+    <t>1. Возможные (но чрезвычайно низкие) совпадения хеш - кода отличных по содержанию ревизий.
+2. Ориентирован на работу в консоли.</t>
+  </si>
+  <si>
+    <t>Простой и отточенный интерфейс, и набор команд, возможность импортировать репозитории с других систем контроля версий, - сделают переход на Mercurial и обучение основным особенностями безболезненным и быстрым. Вряд ли это займет больше нескольких дней.
+Надежность и скорость работы позволяют использовать его для контроля версий огромных проектов. Все это делает mercurial достойным конкурентом git’а.</t>
+  </si>
+  <si>
+    <t>Arch – распределенная система контроля версий, созданная Томом Лордом. Изначально она создавалась для решения проблем CVS, что им вполне удалось.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трудно отметить какие то принципиально лучшие качества, по сравнению с другими распределенным системами контроля версий, такими как git, mercurial, bazaar, так что если есть выбор, то лучше использовать что-то более мощное и распространенное.
+</t>
+  </si>
+  <si>
+    <t>Arch осуществляет атомарные операции по сохранению изменений в репозиторий, т.е. исключает ситуацию скачивания репозитория, когда часть изменений загружена, а часть еще не успела загрузиться.
+Поддерживаются возможности ветвления версий проекта и объединение отдельных веток, переименование и перемещение файлов и каталогов с сохранением истории изменений, и многие другие приятные возможности.</t>
+  </si>
+  <si>
+    <t>Не требует специального сервиса для сетевого репозитория и может использовать такие протоколы, как FTP, SFTP или WebDAV и так далее.</t>
+  </si>
+  <si>
+    <t>Но, к сожалению, поддерживается только UNIX – системами, однако, перевод Arch под другие операционные системы не должен составлять труда.</t>
+  </si>
+  <si>
+    <t>Arch документирована очень простой онлайн системой помощи и руководства.</t>
+  </si>
+  <si>
+    <t>VCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1995 год</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поддержка возможности создания веток версий проекта, гибко управлять ими, объединять, откатываться на предыдущие ревизии, - делает Perforce вполне конкурентно способной системой и способствуют ее широкому распространению. Однако, это продукт - коммерческий, что несколько сужает область его применения и сдерживает распространение. В основном, он используется в больших коммерческих компаниях, для которых важна не только функциональность, но и своевременная техническая поддержка.
+</t>
+  </si>
+  <si>
+    <t>Perforce – кроссплатформенная система. Существуют версии, способные работать под управлением операционных систем Unix, Mac OS X, Microsoft Windows.
+Для работы с системой контроля версий можно использовать, как консоль, так и специально разработанный графический интерфейс.</t>
+  </si>
+  <si>
+    <t>Серьезное преимущество Perforce’у дает возможность интегрироваться со множеством средств разработки программного обеспечения и такими приложениями, как Autodesk 3D Studio Max, Maya, Adobe Photoshop, Microsoft Office, Eclipse, emacs и многими другими.</t>
+  </si>
+  <si>
+    <t>высокая цена лицензии на сервер;
+распространяется в бинарном виде.</t>
+  </si>
+  <si>
+    <t>Клиент предоставляет графический интерфейс и широкий набор утилит для работы из командной строки. Клиентская часть реализована для широкого набора операционных систем. Также разработан большой набор плагинов, позволяющих интегрироваться с широким кругом сред разработки программного обеспечения и приложений других разработчиков: IntelliJ IDEA, XCode, Autodesk 3D Studio Max, Maya, Adobe Photoshop, Microsoft Office, Eclipse, emacs. Помимо этого система предоставляет множество других возможностей — различного вида извещения, создание и обслуживание ветвей проекта, с мощной системой слияний веток, точки отката в базе данных, и взаимодействие с системами отслеживания дефектов.</t>
+  </si>
+  <si>
+    <t>клиент-серверная архитектура</t>
+  </si>
+  <si>
+    <t>Данная коммерческая система управления версиями разработана компанией Perforce Software. В основе нее лежит клиент-серверная архитектура. Сервер данной системы может одновременно иметь несколько репозиториев. Сервер Perforce может быть установлен на операционные системы Unix, Mac OS X, Microsoft Windows.</t>
+  </si>
+  <si>
+    <t>2005 г.</t>
+  </si>
+  <si>
+    <t>кроссплатформенность</t>
+  </si>
+  <si>
+    <t>Mercurial (с англ. — «ртутный, подвижный»), он же Hg (от обозначения химического элемента ртути) — кроссплатформенная распределённая система управления версиями, разработанная для эффективной работы с очень большими репозиториями кода. В первую очередь она является консольной программой.
+Mercurial появился в результате того же конфликта, что привёл к созданию Git. Автором новой системы стал Мэт Мэкол (Matt Mackall).</t>
+  </si>
+  <si>
+    <t>Mercurial является распределённой (децентрализованной) системой контроля версий. Это означает, что рабочий процесс, как правило, выглядит следующим образом:
+На личном компьютере создаётся новый репозиторий (путём клонирования существующего репозитория, создания нового и т. п.);
+В рабочем каталоге данного репозитория изменяются/добавляются/удаляются файлы;
+Выполняется фиксация (commit) изменений в данный репозиторий (то есть в локальный репозиторий на личном компьютере);
+Шаги 2 и 3 повторяются столько раз, сколько необходимо;
+Забираются (pull) чужие наборы изменений;
+Производится слияние изменений (merge);
+Отдаются (push) собственные.
+То есть вся повседневная работа происходит в локальном репозитории, а когда возникает необходимость, производится отправка результатов своей работы в один или несколько других репозиториев. Количество шагов при работе с отдалёнными репозиториями можно сократить, если настроить Mercurial на автоматическую отправку изменений в другие репозитории при выполнении фиксации[8].</t>
+  </si>
+  <si>
+    <t>Консольная программа реализована таким образом, что название любой команды можно сокращать до тех пор, пока её имя остаётся однозначным. Плюс некоторые команды имеют псевдонимы. Например, вместо hg commit можно написать hg commi, hg comm или hg com, но если написать hg c, то Mercurial откажется выполнять эту команду, сообщив, что «команда 'c' неоднозначна» и приведя список команд, которые попадают под это сокращение. Использовать hg co в качестве сокращения для hg commit нельзя, так как это псевдоним для команды hg update, однако доступно сокращение hg ci.</t>
+  </si>
+  <si>
+    <t>«Честные ветки» — любая ветвь может быть отслежена с самого начала;
+Хранение изменений в виде revlog (в противовес blob у git);
+Возможно слияние лишь двух ветвей за один проход (git допускает множественное слияние);
+Невозможность отмены коммита — вместо этого следует послать исправляющий коммит, который наложится поверх неудачного;
+Более строгий контроль различий по умолчанию следует единому стандарту, исключающему конфликты различных версий и клиентов.</t>
+  </si>
+  <si>
+    <t>Mercurial — это система контроля версий. Разработчики используют ее для администрирования исходного кода. У нее два основных назначения:
+Она хранит все предыдущие версии каждого файла
+Она может объединить разные версии вашего кода, то есть сотрудники могут независимо работать над кодом и затем объединять свои изменения
+Источник: https://intellect.icu/mercurial-sistema-kontrolya-versij-osnovy-raboty-6084</t>
+  </si>
+  <si>
+    <t>Высокий порог вхождения (обучения) для тех, кто ранее использовал SVN Ограниченная поддержка Windows (по сравнению с Linux) Mercurial. Mercurial была выпущена одновременно с Git. Это также распределенная система контроля версий. Mercurial создавалась в качестве альтернативы Git для разработки модулей ядра Linux. Но так как выбрали все-таки Git, то Mercurial используется меньше.</t>
+  </si>
+  <si>
+    <t>TFS (система контроля версий) это не совсем система контроля версий — это часть VS. После SVN это несколько напрягает. Если у меня стоит 3 студии, то чтобы понять какой TFS у меня стоит и работает требуются дополнительные усилия.</t>
+  </si>
+  <si>
+    <t>это часть VS</t>
+  </si>
+  <si>
+    <t>В моих условиях переход оказался болезненным: многие вещи берут существенно больше времени.
+Я допускаю, что может быть TFS имеют некую другую идеологию и некие вещи делаются иначе (например shelve), но общее впечатление, что TFS еще не дотягиват до SVN по возможностям.
+Если будет интересно, можно добавить еще немного и интересно обсудить переход на другие части TFS (тестирование, построение билдов).</t>
+  </si>
+  <si>
+    <t>TortioseSVN имеет простой и понятный поиск (и фильтр) по истории бранча, что позволяет быстро найти нужные ревизии. Можно строить сложные условия (автор ревизии, номер, комментарий и т.п.). Ничего такого же встроенного в TFS нет. Тяжело искать.</t>
+  </si>
+  <si>
+    <t>Team Foundation Server работает по трёхуровневой архитектуре: клиентский уровень, прикладной уровень и уровень данных. Клиентский уровень используется для создания и управления проектами, а также для доступа к хранимым и управляемым элементам проекта. На этом уровне TFS не содержит никаких пользовательских интерфейсов, но предоставляет веб-сервисы, которые могут быть использованы клиентскими приложениями для самостоятельной интеграции в функциональность TFS. Эти веб-сервисы используются такими приложениями, как Visual Studio Team System для применения TFS в качестве серверной инфраструктуры хранилища информации или выделенного TFS управления приложениями, наподобие включенного приложения Team Foundation Client. Сами веб-сервисы находятся на прикладном уровне. Прикладной уровень также включает в себя веб-портал и репозиторий (хранилище) документации, поддерживаемые Windows SharePoint Services. Веб-портал, называемый Team Project Portal (портал командного проекта), выступает в роли центра взаимодействия для проектов, управляемых TFS. Репозиторий документов используется как для элементов проекта, так и для отслеживания ревизий (документирование изменений), а также для накопления и обработки данных и генерации отчётов. Уровень данных, основывающийся в первую очередь на установленном SQL Server 2005 Standard Edition, обеспечивает сервисы постоянного хранения данных для репозитория документов. Уровень данных и уровень приложений могут существовать на различных физических или виртуальных серверах при использовании Windows Server 2003 или более специализированных версий. Уровень данных не взаимодействует с клиентским уровнем напрямую, только через прикладной уровень.</t>
+  </si>
+  <si>
+    <t>Любой Team Foundation Server содержит один или более Совместный проект (Team Projects), состоящий из решений на базе Visual Studio, конфигурационных файлов для Team Build и Team Load Test Agents, и единый репозиторий на базе SharePoint, содержащий связанную с проектом документацию. Совместный проект включает в себя пользовательские рабочие элементы, версии (ветки) исходного кода, отчёты, управляемые TFS. TFS обеспечивает возможности для управления этими проектами. При создании нового проекта нужно выбирать фреймворк программной разработки, который впоследствии сменить нельзя. TFS включает в себя несколько наиболее распространённых шаблонов, среди которых присутствуют как методики гибкой разработки, так и формальные. Выбор фреймворка наполняет проект заранее предопределенными элементами, как например, роли и полномочия, а также прочую документацию, например, стратегию развития проекта (project roadmap), шаблоны документов, заготовки отчётов. Эти элементы могут быть связаны с рабочими элементами. Статус определенных элементов проекта может автоматически обновляться при изменении рабочих элементов. TFS можно интегрировать с Microsoft Excel для создания и отслеживания элементов проекта. Статус элементов в этом случае можно указывать и редактировать непосредственно в Excel, а итоговые таблицы могут обрабатываться TFS, который будет импортировать данные с учётом особенностей управления данным проектом. Кроме того, его также можно интегрировать с Microsoft Project (например, Microsoft Project 2003, но не Project Server!) в качестве клиентской части управления проектом. Элементы проекта можно экспортировать как документы Excel для дальнейшего анализа данных.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Foundation Server реализует репозиторий управления исходным кодом, называемый Team Foundation Version Control (TFVC). </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +490,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -259,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -279,6 +562,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -595,7 +879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -605,24 +889,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -651,7 +935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -678,7 +962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -707,7 +991,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -736,111 +1020,237 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="409.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
